--- a/projects/Validation cases/axial_turbine_validation_cases.xlsx
+++ b/projects/Validation cases/axial_turbine_validation_cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roagr\OneDrive - Danmarks Tekniske Universitet\Skrivebord\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/roagr_dtu_dk/Documents/Roberto/Projects/meanline-axial/projects/Validation cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80301D65-B49B-4D2E-A7EB-3D5FB268D588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19690" yWindow="490" windowWidth="14400" windowHeight="8275" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19110" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
